--- a/DesignData/JoblistTable.xlsx
+++ b/DesignData/JoblistTable.xlsx
@@ -1,46 +1,264 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10hou\Desktop\MaeBTI\DesignData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F89418-EB8B-48C2-8BD2-E83364D2E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1470" yWindow="250" windowWidth="34100" windowHeight="20640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="68">
+  <si>
+    <t>jobname</t>
+  </si>
+  <si>
+    <t>isUtilGood</t>
+  </si>
+  <si>
+    <t>isCoreEasy</t>
+  </si>
+  <si>
+    <t>isDamageGood</t>
+  </si>
+  <si>
+    <t>isBossEasy</t>
+  </si>
+  <si>
+    <t>isFieldEasy</t>
+  </si>
+  <si>
+    <t>아델</t>
+  </si>
+  <si>
+    <t>비숍</t>
+  </si>
+  <si>
+    <t>키네시스</t>
+  </si>
+  <si>
+    <t>히어로</t>
+  </si>
+  <si>
+    <t>isUnionable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasTripleJump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasTeleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isComDealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUltDealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseLinkedskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPartyUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasOwnBind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasKeyDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAttackRangeShort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNewbieGood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFieldSkillEasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEasyDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이트로드</t>
+  </si>
+  <si>
+    <t>나이트워커</t>
+  </si>
+  <si>
+    <t>다크나이트</t>
+  </si>
+  <si>
+    <t>데몬슬레이어</t>
+  </si>
+  <si>
+    <t>데몬어벤져</t>
+  </si>
+  <si>
+    <t>듀얼블레이더</t>
+  </si>
+  <si>
+    <t>라라</t>
+  </si>
+  <si>
+    <t>루미너스</t>
+  </si>
+  <si>
+    <t>메르세데스</t>
+  </si>
+  <si>
+    <t>메카닉</t>
+  </si>
+  <si>
+    <t>미하일</t>
+  </si>
+  <si>
+    <t>바이퍼</t>
+  </si>
+  <si>
+    <t>배틀메이지</t>
+  </si>
+  <si>
+    <t>보우마스터</t>
+  </si>
+  <si>
+    <t>블래스터</t>
+  </si>
+  <si>
+    <t>섀도어</t>
+  </si>
+  <si>
+    <t>소울마스터</t>
+  </si>
+  <si>
+    <t>스트라이커</t>
+  </si>
+  <si>
+    <t>신궁</t>
+  </si>
+  <si>
+    <t>아란</t>
+  </si>
+  <si>
+    <t>아크</t>
+  </si>
+  <si>
+    <t>아크메이지(불,독)</t>
+  </si>
+  <si>
+    <t>아크메이지(썬,콜)</t>
+  </si>
+  <si>
+    <t>에반</t>
+  </si>
+  <si>
+    <t>엔젤릭버스터</t>
+  </si>
+  <si>
+    <t>와일드헌터</t>
+  </si>
+  <si>
+    <t>윈드브레이커</t>
+  </si>
+  <si>
+    <t>은월</t>
+  </si>
+  <si>
+    <t>일리움</t>
+  </si>
+  <si>
+    <t>제논</t>
+  </si>
+  <si>
+    <t>제로</t>
+  </si>
+  <si>
+    <t>카데나</t>
+  </si>
+  <si>
+    <t>카이저</t>
+  </si>
+  <si>
+    <t>카인</t>
+  </si>
+  <si>
+    <t>칼리</t>
+  </si>
+  <si>
+    <t>캐논마스터</t>
+  </si>
+  <si>
+    <t>캡틴</t>
+  </si>
+  <si>
+    <t>팔라딘</t>
+  </si>
+  <si>
+    <t>패스파인더</t>
+  </si>
+  <si>
+    <t>팬텀</t>
+  </si>
+  <si>
+    <t>플레임위자드</t>
+  </si>
+  <si>
+    <t>호영</t>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -65,13 +283,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,153 +622,905 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.07421875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.765625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.4609375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.69140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>jobname</v>
-      </c>
-      <c r="B1" t="str">
-        <v>isUtilGood</v>
-      </c>
-      <c r="C1" t="str">
-        <v>isCoreEasy</v>
-      </c>
-      <c r="D1" t="str">
-        <v>isDamageGood</v>
-      </c>
-      <c r="E1" t="str">
-        <v>isUnion6000</v>
-      </c>
-      <c r="F1" t="str">
-        <v>isBossEasy</v>
-      </c>
-      <c r="G1" t="str">
-        <v>isFieldEasy</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>아델</v>
-      </c>
-      <c r="B2" t="str">
-        <v>no</v>
-      </c>
-      <c r="C2" t="str">
-        <v>no</v>
-      </c>
-      <c r="D2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E2" t="str">
-        <v>no</v>
-      </c>
-      <c r="F2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G2" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>비숍</v>
-      </c>
-      <c r="B3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="D3" t="str">
-        <v>no</v>
-      </c>
-      <c r="E3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="F3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G3" t="str">
-        <v>no</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>썬콜</v>
-      </c>
-      <c r="B4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="D4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="F4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G4" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>키네시스</v>
-      </c>
-      <c r="B5" t="str">
-        <v>no</v>
-      </c>
-      <c r="C5" t="str">
-        <v>no</v>
-      </c>
-      <c r="D5" t="str">
-        <v>no</v>
-      </c>
-      <c r="E5" t="str">
-        <v>no</v>
-      </c>
-      <c r="F5" t="str">
-        <v>no</v>
-      </c>
-      <c r="G5" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>히어로</v>
-      </c>
-      <c r="B6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="D6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E6" t="str">
-        <v>no</v>
-      </c>
-      <c r="F6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G6" t="str">
-        <v>no</v>
-      </c>
-    </row>
+    <row r="1" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" t="s">
+        <v>67</v>
+      </c>
+      <c r="S9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17.5" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError sqref="A1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DesignData/JoblistTable.xlsx
+++ b/DesignData/JoblistTable.xlsx
@@ -1,55 +1,330 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="-480" yWindow="780" windowWidth="15855" windowHeight="10125"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="72">
+  <si>
+    <t>jobname</t>
+  </si>
+  <si>
+    <t>isUtilGood</t>
+  </si>
+  <si>
+    <t>isCoreEasy</t>
+  </si>
+  <si>
+    <t>isDamageGood</t>
+  </si>
+  <si>
+    <t>isUnion6000</t>
+  </si>
+  <si>
+    <t>isBossEasy</t>
+  </si>
+  <si>
+    <t>isFieldEasy</t>
+  </si>
+  <si>
+    <t>아델</t>
+  </si>
+  <si>
+    <t>비숍</t>
+  </si>
+  <si>
+    <t>썬콜</t>
+  </si>
+  <si>
+    <t>키네시스</t>
+  </si>
+  <si>
+    <t>히어로</t>
+  </si>
+  <si>
+    <t>팔라딘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크나이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소울마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미하일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블래스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데몬슬레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데몬어벤져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카이저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레임위자드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배틀메이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루미너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일리움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보우마스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신궁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스파인더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈드브레이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와일드헌터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메르세데스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이트로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섀도어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀얼블레이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나이트워커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제논</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬텀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카데나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캡틴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐논슈터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스트라이커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메카닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔젤릭버스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasTripleJump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasTeleport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isComDealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUltDealer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseLinkedskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasPartyUtil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasOwnBind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hasKeyDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAttackRangeShort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNewbieGood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFieldSkillEasy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEasyDeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>VeryGood</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Soso</t>
+  </si>
+  <si>
+    <t>VeryBad</t>
+  </si>
+  <si>
+    <t>Soso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,14 +339,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,153 +678,2940 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>jobname</v>
-      </c>
-      <c r="B1" t="str">
-        <v>isUtilGood</v>
-      </c>
-      <c r="C1" t="str">
-        <v>isCoreEasy</v>
-      </c>
-      <c r="D1" t="str">
-        <v>isDamageGood</v>
-      </c>
-      <c r="E1" t="str">
-        <v>isUnion6000</v>
-      </c>
-      <c r="F1" t="str">
-        <v>isBossEasy</v>
-      </c>
-      <c r="G1" t="str">
-        <v>isFieldEasy</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>아델</v>
-      </c>
-      <c r="B2" t="str">
-        <v>no</v>
-      </c>
-      <c r="C2" t="str">
-        <v>no</v>
-      </c>
-      <c r="D2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E2" t="str">
-        <v>no</v>
-      </c>
-      <c r="F2" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G2" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>비숍</v>
-      </c>
-      <c r="B3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="D3" t="str">
-        <v>no</v>
-      </c>
-      <c r="E3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="F3" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G3" t="str">
-        <v>no</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>썬콜</v>
-      </c>
-      <c r="B4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="D4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="F4" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G4" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>키네시스</v>
-      </c>
-      <c r="B5" t="str">
-        <v>no</v>
-      </c>
-      <c r="C5" t="str">
-        <v>no</v>
-      </c>
-      <c r="D5" t="str">
-        <v>no</v>
-      </c>
-      <c r="E5" t="str">
-        <v>no</v>
-      </c>
-      <c r="F5" t="str">
-        <v>no</v>
-      </c>
-      <c r="G5" t="str">
-        <v>yes</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>히어로</v>
-      </c>
-      <c r="B6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="C6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="D6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="E6" t="str">
-        <v>no</v>
-      </c>
-      <c r="F6" t="str">
-        <v>yes</v>
-      </c>
-      <c r="G6" t="str">
-        <v>no</v>
+    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" t="s">
+        <v>66</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>66</v>
+      </c>
+      <c r="R11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" t="s">
+        <v>66</v>
+      </c>
+      <c r="T12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" t="s">
+        <v>66</v>
+      </c>
+      <c r="S14" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" t="s">
+        <v>66</v>
+      </c>
+      <c r="S19" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" t="s">
+        <v>66</v>
+      </c>
+      <c r="S20" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" t="s">
+        <v>66</v>
+      </c>
+      <c r="S21" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>66</v>
+      </c>
+      <c r="R22" t="s">
+        <v>66</v>
+      </c>
+      <c r="S22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>66</v>
+      </c>
+      <c r="R23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" t="s">
+        <v>66</v>
+      </c>
+      <c r="S24" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" t="s">
+        <v>66</v>
+      </c>
+      <c r="S25" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>66</v>
+      </c>
+      <c r="R26" t="s">
+        <v>66</v>
+      </c>
+      <c r="S26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>66</v>
+      </c>
+      <c r="R27" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" t="s">
+        <v>66</v>
+      </c>
+      <c r="T27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" t="s">
+        <v>66</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>66</v>
+      </c>
+      <c r="R28" t="s">
+        <v>66</v>
+      </c>
+      <c r="S28" t="s">
+        <v>66</v>
+      </c>
+      <c r="T28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L29" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" t="s">
+        <v>66</v>
+      </c>
+      <c r="S29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" t="s">
+        <v>66</v>
+      </c>
+      <c r="M30" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" t="s">
+        <v>66</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>66</v>
+      </c>
+      <c r="R30" t="s">
+        <v>66</v>
+      </c>
+      <c r="S30" t="s">
+        <v>66</v>
+      </c>
+      <c r="T30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>66</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" t="s">
+        <v>66</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>66</v>
+      </c>
+      <c r="R31" t="s">
+        <v>66</v>
+      </c>
+      <c r="S31" t="s">
+        <v>66</v>
+      </c>
+      <c r="T31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" t="s">
+        <v>66</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" t="s">
+        <v>66</v>
+      </c>
+      <c r="M33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>66</v>
+      </c>
+      <c r="R33" t="s">
+        <v>66</v>
+      </c>
+      <c r="S33" t="s">
+        <v>66</v>
+      </c>
+      <c r="T33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>66</v>
+      </c>
+      <c r="R34" t="s">
+        <v>66</v>
+      </c>
+      <c r="S34" t="s">
+        <v>66</v>
+      </c>
+      <c r="T34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M35" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" t="s">
+        <v>66</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>66</v>
+      </c>
+      <c r="R35" t="s">
+        <v>66</v>
+      </c>
+      <c r="S35" t="s">
+        <v>66</v>
+      </c>
+      <c r="T35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M36" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" t="s">
+        <v>66</v>
+      </c>
+      <c r="O36" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>66</v>
+      </c>
+      <c r="R36" t="s">
+        <v>66</v>
+      </c>
+      <c r="S36" t="s">
+        <v>66</v>
+      </c>
+      <c r="T36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" t="s">
+        <v>66</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>66</v>
+      </c>
+      <c r="R37" t="s">
+        <v>66</v>
+      </c>
+      <c r="S37" t="s">
+        <v>66</v>
+      </c>
+      <c r="T37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" t="s">
+        <v>66</v>
+      </c>
+      <c r="H38" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" t="s">
+        <v>66</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>66</v>
+      </c>
+      <c r="R38" t="s">
+        <v>66</v>
+      </c>
+      <c r="S38" t="s">
+        <v>66</v>
+      </c>
+      <c r="T38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39" t="s">
+        <v>66</v>
+      </c>
+      <c r="M39" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" t="s">
+        <v>66</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>66</v>
+      </c>
+      <c r="R39" t="s">
+        <v>66</v>
+      </c>
+      <c r="S39" t="s">
+        <v>66</v>
+      </c>
+      <c r="T39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" t="s">
+        <v>66</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>66</v>
+      </c>
+      <c r="R40" t="s">
+        <v>66</v>
+      </c>
+      <c r="S40" t="s">
+        <v>66</v>
+      </c>
+      <c r="T40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>66</v>
+      </c>
+      <c r="R41" t="s">
+        <v>66</v>
+      </c>
+      <c r="S41" t="s">
+        <v>66</v>
+      </c>
+      <c r="T41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" t="s">
+        <v>66</v>
+      </c>
+      <c r="H42" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" t="s">
+        <v>66</v>
+      </c>
+      <c r="M42" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>66</v>
+      </c>
+      <c r="R42" t="s">
+        <v>66</v>
+      </c>
+      <c r="S42" t="s">
+        <v>66</v>
+      </c>
+      <c r="T42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" t="s">
+        <v>66</v>
+      </c>
+      <c r="L43" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>66</v>
+      </c>
+      <c r="R43" t="s">
+        <v>66</v>
+      </c>
+      <c r="S43" t="s">
+        <v>66</v>
+      </c>
+      <c r="T43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" t="s">
+        <v>66</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44" t="s">
+        <v>66</v>
+      </c>
+      <c r="L44" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" t="s">
+        <v>66</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>66</v>
+      </c>
+      <c r="R44" t="s">
+        <v>66</v>
+      </c>
+      <c r="S44" t="s">
+        <v>66</v>
+      </c>
+      <c r="T44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" t="s">
+        <v>66</v>
+      </c>
+      <c r="K45" t="s">
+        <v>66</v>
+      </c>
+      <c r="L45" t="s">
+        <v>66</v>
+      </c>
+      <c r="M45" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>66</v>
+      </c>
+      <c r="R45" t="s">
+        <v>66</v>
+      </c>
+      <c r="S45" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" t="s">
+        <v>66</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>66</v>
+      </c>
+      <c r="R46" t="s">
+        <v>66</v>
+      </c>
+      <c r="S46" t="s">
+        <v>66</v>
+      </c>
+      <c r="T46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" t="s">
+        <v>66</v>
+      </c>
+      <c r="L47" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" t="s">
+        <v>66</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>66</v>
+      </c>
+      <c r="R47" t="s">
+        <v>66</v>
+      </c>
+      <c r="S47" t="s">
+        <v>66</v>
+      </c>
+      <c r="T47" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:T47">
+      <formula1>"VeryGood,Good,Soso,Bad,VeryBad"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError sqref="A1:G1 A6 A2 A3 A4 A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/DesignData/JoblistTable.xlsx
+++ b/DesignData/JoblistTable.xlsx
@@ -682,12 +682,12 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -760,16 +760,16 @@
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
         <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
         <v>66</v>
@@ -811,7 +811,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,13 +825,13 @@
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>66</v>
@@ -873,7 +873,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -884,16 +884,16 @@
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
@@ -935,7 +935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,16 +946,16 @@
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
         <v>66</v>
@@ -997,7 +997,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1008,16 +1008,16 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
         <v>66</v>
@@ -1076,7 +1076,7 @@
         <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
         <v>66</v>
@@ -1132,16 +1132,16 @@
         <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
         <v>66</v>
@@ -1191,16 +1191,16 @@
         <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
         <v>66</v>
@@ -1253,19 +1253,19 @@
         <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
         <v>66</v>
@@ -1318,16 +1318,16 @@
         <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
         <v>66</v>
@@ -1377,19 +1377,19 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
         <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
         <v>66</v>
@@ -1439,19 +1439,19 @@
         <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
         <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -1504,10 +1504,10 @@
         <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
         <v>66</v>
@@ -1563,13 +1563,13 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
         <v>66</v>
@@ -1631,7 +1631,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
         <v>66</v>
@@ -1687,19 +1687,19 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
         <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
         <v>66</v>
@@ -1752,16 +1752,16 @@
         <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
         <v>66</v>
@@ -1814,7 +1814,7 @@
         <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
         <v>66</v>
@@ -1823,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
         <v>66</v>
@@ -1873,10 +1873,10 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
@@ -1885,7 +1885,7 @@
         <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
         <v>66</v>
@@ -1935,19 +1935,19 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -2000,16 +2000,16 @@
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
         <v>66</v>
@@ -2059,19 +2059,19 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
         <v>66</v>
@@ -2121,19 +2121,19 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
         <v>66</v>
@@ -2183,19 +2183,19 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
         <v>66</v>
@@ -2251,13 +2251,13 @@
         <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H26" t="s">
         <v>66</v>
@@ -2307,19 +2307,19 @@
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
@@ -2375,13 +2375,13 @@
         <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H28" t="s">
         <v>66</v>
@@ -2434,13 +2434,13 @@
         <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G29" t="s">
         <v>66</v>
@@ -2496,16 +2496,16 @@
         <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
         <v>66</v>
@@ -2555,19 +2555,19 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F31" t="s">
         <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
         <v>66</v>
@@ -2617,19 +2617,19 @@
         <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>66</v>
@@ -2685,13 +2685,13 @@
         <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
         <v>66</v>
@@ -2744,16 +2744,16 @@
         <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>66</v>
@@ -2806,16 +2806,16 @@
         <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>66</v>
@@ -2865,16 +2865,16 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>66</v>
@@ -2927,16 +2927,16 @@
         <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E37" t="s">
         <v>66</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>66</v>
@@ -2989,19 +2989,19 @@
         <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
         <v>66</v>
       </c>
       <c r="G38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>66</v>
@@ -3054,16 +3054,16 @@
         <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
         <v>66</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>66</v>
@@ -3113,19 +3113,19 @@
         <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
         <v>66</v>
@@ -3175,19 +3175,19 @@
         <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
         <v>66</v>
@@ -3237,19 +3237,19 @@
         <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D42" t="s">
         <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H42" t="s">
         <v>66</v>
@@ -3305,7 +3305,7 @@
         <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F43" t="s">
         <v>66</v>
@@ -3361,19 +3361,19 @@
         <v>68</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H44" t="s">
         <v>66</v>
@@ -3423,19 +3423,19 @@
         <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H45" t="s">
         <v>66</v>
@@ -3485,19 +3485,19 @@
         <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H46" t="s">
         <v>66</v>
@@ -3547,16 +3547,16 @@
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
         <v>66</v>

--- a/DesignData/JoblistTable.xlsx
+++ b/DesignData/JoblistTable.xlsx
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -772,43 +772,43 @@
         <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" t="s">
         <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -834,43 +834,43 @@
         <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
         <v>66</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
         <v>66</v>
       </c>
       <c r="Q3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -896,43 +896,43 @@
         <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
         <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s">
         <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -958,16 +958,16 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
         <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
         <v>66</v>
@@ -976,22 +976,22 @@
         <v>66</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T5" t="s">
         <v>66</v>
@@ -1020,43 +1020,43 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s">
         <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s">
         <v>66</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -1082,28 +1082,28 @@
         <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s">
         <v>66</v>
@@ -1112,13 +1112,13 @@
         <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -1144,16 +1144,16 @@
         <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
         <v>66</v>
@@ -1162,10 +1162,10 @@
         <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P8" t="s">
         <v>66</v>
@@ -1174,13 +1174,13 @@
         <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1206,43 +1206,43 @@
         <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
         <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s">
         <v>66</v>
       </c>
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -1268,43 +1268,43 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
         <v>66</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
         <v>66</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1330,43 +1330,43 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="R11" t="s">
         <v>66</v>
       </c>
       <c r="S11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -1392,43 +1392,43 @@
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
         <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s">
         <v>66</v>
       </c>
       <c r="S12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -1454,28 +1454,28 @@
         <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s">
         <v>66</v>
@@ -1484,13 +1484,13 @@
         <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -1516,43 +1516,43 @@
         <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="R14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -1578,43 +1578,43 @@
         <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q15" t="s">
         <v>66</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -1640,34 +1640,34 @@
         <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
         <v>66</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R16" t="s">
         <v>66</v>
@@ -1676,7 +1676,7 @@
         <v>66</v>
       </c>
       <c r="T16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1702,13 +1702,13 @@
         <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s">
         <v>66</v>
@@ -1720,25 +1720,25 @@
         <v>66</v>
       </c>
       <c r="N17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P17" t="s">
         <v>66</v>
       </c>
       <c r="Q17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R17" t="s">
         <v>66</v>
       </c>
       <c r="S17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -1764,43 +1764,43 @@
         <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J18" t="s">
         <v>66</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -1826,13 +1826,13 @@
         <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
         <v>66</v>
@@ -1841,28 +1841,28 @@
         <v>66</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q19" t="s">
         <v>66</v>
       </c>
       <c r="R19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S19" t="s">
         <v>66</v>
       </c>
       <c r="T19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -1888,40 +1888,40 @@
         <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R20" t="s">
         <v>66</v>
       </c>
       <c r="S20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T20" t="s">
         <v>66</v>
@@ -1950,40 +1950,40 @@
         <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T21" t="s">
         <v>66</v>
@@ -2012,43 +2012,43 @@
         <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R22" t="s">
         <v>66</v>
       </c>
       <c r="S22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -2074,43 +2074,43 @@
         <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P23" t="s">
         <v>66</v>
       </c>
       <c r="Q23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2136,31 +2136,31 @@
         <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N24" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q24" t="s">
         <v>66</v>
@@ -2172,7 +2172,7 @@
         <v>66</v>
       </c>
       <c r="T24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2198,43 +2198,43 @@
         <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q25" t="s">
         <v>66</v>
       </c>
       <c r="R25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S25" t="s">
         <v>66</v>
       </c>
       <c r="T25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -2263,40 +2263,40 @@
         <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
         <v>66</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -2325,40 +2325,40 @@
         <v>66</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N27" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -2384,31 +2384,31 @@
         <v>69</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s">
         <v>66</v>
       </c>
       <c r="M28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q28" t="s">
         <v>66</v>
@@ -2420,7 +2420,7 @@
         <v>66</v>
       </c>
       <c r="T28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2449,40 +2449,40 @@
         <v>66</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R29" t="s">
         <v>66</v>
       </c>
       <c r="S29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -2508,43 +2508,43 @@
         <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -2570,43 +2570,43 @@
         <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M31" t="s">
         <v>66</v>
       </c>
       <c r="N31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P31" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R31" t="s">
         <v>66</v>
       </c>
       <c r="S31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -2632,13 +2632,13 @@
         <v>67</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K32" t="s">
         <v>66</v>
@@ -2647,28 +2647,28 @@
         <v>66</v>
       </c>
       <c r="M32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P32" t="s">
         <v>66</v>
       </c>
       <c r="Q32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -2694,43 +2694,43 @@
         <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -2756,43 +2756,43 @@
         <v>67</v>
       </c>
       <c r="H34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M34" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -2818,43 +2818,43 @@
         <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J35" t="s">
         <v>66</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S35" t="s">
         <v>66</v>
       </c>
       <c r="T35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -2880,43 +2880,43 @@
         <v>66</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L36" t="s">
         <v>66</v>
       </c>
       <c r="M36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="R36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -2942,31 +2942,31 @@
         <v>66</v>
       </c>
       <c r="H37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K37" t="s">
         <v>66</v>
       </c>
       <c r="L37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q37" t="s">
         <v>66</v>
@@ -2978,7 +2978,7 @@
         <v>66</v>
       </c>
       <c r="T37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3004,43 +3004,43 @@
         <v>67</v>
       </c>
       <c r="H38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s">
         <v>66</v>
       </c>
       <c r="L38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M38" t="s">
         <v>66</v>
       </c>
       <c r="N38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -3066,43 +3066,43 @@
         <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P39" t="s">
         <v>66</v>
       </c>
       <c r="Q39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -3128,43 +3128,43 @@
         <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N40" t="s">
         <v>66</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -3190,43 +3190,43 @@
         <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s">
         <v>66</v>
       </c>
       <c r="M41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O41" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3252,16 +3252,16 @@
         <v>69</v>
       </c>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s">
         <v>66</v>
@@ -3270,25 +3270,25 @@
         <v>66</v>
       </c>
       <c r="N42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P42" t="s">
         <v>66</v>
       </c>
       <c r="Q42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -3314,43 +3314,43 @@
         <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s">
         <v>66</v>
       </c>
       <c r="L43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O43" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -3376,43 +3376,43 @@
         <v>69</v>
       </c>
       <c r="H44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J44" t="s">
         <v>66</v>
       </c>
       <c r="K44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R44" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -3438,43 +3438,43 @@
         <v>69</v>
       </c>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s">
         <v>66</v>
       </c>
       <c r="M45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R45" t="s">
         <v>66</v>
       </c>
       <c r="S45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3500,19 +3500,19 @@
         <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M46" t="s">
         <v>66</v>
@@ -3521,22 +3521,22 @@
         <v>66</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="R46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -3565,40 +3565,40 @@
         <v>66</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P47" t="s">
         <v>66</v>
       </c>
       <c r="Q47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/DesignData/JoblistTable.xlsx
+++ b/DesignData/JoblistTable.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="73">
   <si>
     <t>jobname</t>
   </si>
@@ -284,6 +284,10 @@
   </si>
   <si>
     <t>Soso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAttackRangeLong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,15 +683,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,16 +742,19 @@
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -802,16 +807,19 @@
         <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
         <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,16 +872,19 @@
         <v>68</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,16 +937,19 @@
         <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,16 +1002,19 @@
         <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
         <v>67</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1053,13 +1070,16 @@
         <v>69</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="U6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1112,16 +1132,19 @@
         <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1174,16 +1197,19 @@
         <v>66</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="U8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1236,16 +1262,19 @@
         <v>69</v>
       </c>
       <c r="R9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +1327,7 @@
         <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S10" t="s">
         <v>68</v>
@@ -1306,8 +1335,11 @@
       <c r="T10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1360,16 +1392,19 @@
         <v>70</v>
       </c>
       <c r="R11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="U11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1422,16 +1457,19 @@
         <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="T12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1484,16 +1522,19 @@
         <v>66</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S13" t="s">
         <v>68</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="U13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,16 +1587,19 @@
         <v>70</v>
       </c>
       <c r="R14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="U14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1608,16 +1652,19 @@
         <v>66</v>
       </c>
       <c r="R15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S15" t="s">
         <v>69</v>
       </c>
       <c r="T15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1670,16 +1717,19 @@
         <v>68</v>
       </c>
       <c r="R16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S16" t="s">
         <v>66</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1732,16 +1782,19 @@
         <v>67</v>
       </c>
       <c r="R17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1794,16 +1847,19 @@
         <v>68</v>
       </c>
       <c r="R18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1856,16 +1912,19 @@
         <v>66</v>
       </c>
       <c r="R19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1918,16 +1977,19 @@
         <v>68</v>
       </c>
       <c r="R20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1980,16 +2042,19 @@
         <v>67</v>
       </c>
       <c r="R21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2042,16 +2107,19 @@
         <v>68</v>
       </c>
       <c r="R22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -2104,16 +2172,19 @@
         <v>67</v>
       </c>
       <c r="R23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -2166,16 +2237,19 @@
         <v>66</v>
       </c>
       <c r="R24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S24" t="s">
         <v>66</v>
       </c>
       <c r="T24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -2228,16 +2302,19 @@
         <v>66</v>
       </c>
       <c r="R25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -2290,16 +2367,19 @@
         <v>68</v>
       </c>
       <c r="R26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -2358,10 +2438,13 @@
         <v>69</v>
       </c>
       <c r="T27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -2420,10 +2503,13 @@
         <v>66</v>
       </c>
       <c r="T28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -2476,16 +2562,19 @@
         <v>69</v>
       </c>
       <c r="R29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -2538,16 +2627,19 @@
         <v>69</v>
       </c>
       <c r="R30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -2600,16 +2692,19 @@
         <v>69</v>
       </c>
       <c r="R31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -2662,16 +2757,19 @@
         <v>68</v>
       </c>
       <c r="R32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -2724,16 +2822,19 @@
         <v>67</v>
       </c>
       <c r="R33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -2786,16 +2887,19 @@
         <v>68</v>
       </c>
       <c r="R34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S34" t="s">
         <v>69</v>
       </c>
       <c r="T34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -2848,16 +2952,19 @@
         <v>68</v>
       </c>
       <c r="R35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="T35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -2916,10 +3023,13 @@
         <v>70</v>
       </c>
       <c r="T36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="U36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -2978,10 +3088,13 @@
         <v>66</v>
       </c>
       <c r="T37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="U37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -3034,16 +3147,19 @@
         <v>67</v>
       </c>
       <c r="R38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -3096,16 +3212,19 @@
         <v>67</v>
       </c>
       <c r="R39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S39" t="s">
         <v>68</v>
       </c>
       <c r="T39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="U39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -3158,16 +3277,19 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="S40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -3220,16 +3342,19 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="U41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -3282,16 +3407,19 @@
         <v>68</v>
       </c>
       <c r="R42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -3344,16 +3472,19 @@
         <v>68</v>
       </c>
       <c r="R43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -3406,16 +3537,19 @@
         <v>69</v>
       </c>
       <c r="R44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -3468,16 +3602,19 @@
         <v>69</v>
       </c>
       <c r="R45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S45" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="U45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -3530,16 +3667,19 @@
         <v>68</v>
       </c>
       <c r="R46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="U46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -3592,19 +3732,22 @@
         <v>69</v>
       </c>
       <c r="R47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T47" t="s">
+        <v>69</v>
+      </c>
+      <c r="U47" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:T47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:U47">
       <formula1>"VeryGood,Good,Soso,Bad,VeryBad"</formula1>
     </dataValidation>
   </dataValidations>
